--- a/files/column_to_column.xlsx
+++ b/files/column_to_column.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="all matched rows" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="unique_rows_file1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="unique_rows_file2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,24 +460,112 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tiffany --&gt; Bob</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>12 --&gt; 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
           <t>Steven</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>5 --&gt; 8</t>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>header1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>header2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>_merge</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Tiffany</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>header1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>header2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>_merge</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>right_only</t>
         </is>
       </c>
     </row>

--- a/files/column_to_column.xlsx
+++ b/files/column_to_column.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,16 +455,6 @@
       </c>
       <c r="B2" t="n">
         <v>18</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Steven</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,6 +503,36 @@
         <v>12</v>
       </c>
       <c r="C2" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Steven</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Vilens</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>86</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -529,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +589,21 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Steven</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>right_only</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
